--- a/COD R12 Cloud ERP Automation/src/test/resources/TestArtifacts/COD R12 Cloud ERP TestData_Cloud.xlsx
+++ b/COD R12 Cloud ERP Automation/src/test/resources/TestArtifacts/COD R12 Cloud ERP TestData_Cloud.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BC5722C2-8C56-4E82-A3C5-598DB60633E7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16590" windowHeight="4470" tabRatio="861" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="861" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createItemBasedRequisition" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="165">
   <si>
     <t>ID</t>
   </si>
@@ -508,12 +509,21 @@
   </si>
   <si>
     <t>TC_07</t>
+  </si>
+  <si>
+    <t>CheckFundsMsgGet</t>
+  </si>
+  <si>
+    <t>PurchaseOrderNoGet</t>
+  </si>
+  <si>
+    <t>The transaction passed the funds check process.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1004,50 +1014,50 @@
     </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - Accent1 2" xfId="1"/>
-    <cellStyle name="20% - Accent2 2" xfId="2"/>
-    <cellStyle name="20% - Accent3 2" xfId="3"/>
-    <cellStyle name="20% - Accent4 2" xfId="4"/>
-    <cellStyle name="20% - Accent5 2" xfId="5"/>
-    <cellStyle name="20% - Accent6 2" xfId="6"/>
-    <cellStyle name="40% - Accent1 2" xfId="7"/>
-    <cellStyle name="40% - Accent2 2" xfId="8"/>
-    <cellStyle name="40% - Accent3 2" xfId="9"/>
-    <cellStyle name="40% - Accent4 2" xfId="10"/>
-    <cellStyle name="40% - Accent5 2" xfId="11"/>
-    <cellStyle name="40% - Accent6 2" xfId="12"/>
-    <cellStyle name="60% - Accent1 2" xfId="13"/>
-    <cellStyle name="60% - Accent2 2" xfId="14"/>
-    <cellStyle name="60% - Accent3 2" xfId="15"/>
-    <cellStyle name="60% - Accent4 2" xfId="16"/>
-    <cellStyle name="60% - Accent5 2" xfId="17"/>
-    <cellStyle name="60% - Accent6 2" xfId="18"/>
-    <cellStyle name="Accent1 2" xfId="19"/>
-    <cellStyle name="Accent2 2" xfId="20"/>
-    <cellStyle name="Accent3 2" xfId="21"/>
-    <cellStyle name="Accent4 2" xfId="22"/>
-    <cellStyle name="Accent5 2" xfId="23"/>
-    <cellStyle name="Accent6 2" xfId="24"/>
-    <cellStyle name="Bad 2" xfId="25"/>
-    <cellStyle name="Calculation 2" xfId="26"/>
-    <cellStyle name="Check Cell 2" xfId="27"/>
-    <cellStyle name="Explanatory Text 2" xfId="28"/>
-    <cellStyle name="Good 2" xfId="29"/>
-    <cellStyle name="Heading 1 2" xfId="30"/>
-    <cellStyle name="Heading 2 2" xfId="31"/>
-    <cellStyle name="Heading 3 2" xfId="32"/>
-    <cellStyle name="Heading 4 2" xfId="33"/>
-    <cellStyle name="Input 2" xfId="34"/>
-    <cellStyle name="Linked Cell 2" xfId="35"/>
-    <cellStyle name="Neutral 2" xfId="36"/>
+    <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Calculation 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Check Cell 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Good 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Heading 1 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Heading 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Heading 3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Heading 4 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Input 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Neutral 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="37"/>
-    <cellStyle name="Normal 3" xfId="38"/>
-    <cellStyle name="Note 2" xfId="39"/>
-    <cellStyle name="Output 2" xfId="40"/>
-    <cellStyle name="Title 2" xfId="41"/>
-    <cellStyle name="Total 2" xfId="42"/>
-    <cellStyle name="Warning Text 2" xfId="43"/>
+    <cellStyle name="Normal 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 3" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Note 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Output 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Title 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Total 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Warning Text 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1382,11 +1392,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1406,17 +1416,18 @@
     <col min="13" max="14" width="18.7109375" style="2" customWidth="1"/>
     <col min="15" max="15" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="2"/>
-    <col min="22" max="22" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="2"/>
+    <col min="17" max="17" width="16.42578125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="2"/>
+    <col min="23" max="23" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1466,27 +1477,30 @@
         <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="1"/>
       <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1536,7 +1550,7 @@
         <v>2</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>2</v>
@@ -1548,13 +1562,16 @@
         <v>2</v>
       </c>
       <c r="U2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2" s="4"/>
+      <c r="W2" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1563,7 +1580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1758,7 +1775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1891,7 +1908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2037,7 +2054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2196,11 +2213,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2208,12 +2225,13 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2230,25 +2248,28 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>146</v>
       </c>
@@ -2265,7 +2286,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
@@ -2277,9 +2298,12 @@
         <v>2</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2290,7 +2314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2405,7 +2429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2565,7 +2589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
